--- a/pred_ohlcv/54_21/2020-01-13 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 DAD ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-67924.5866</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-67924.5866</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>-75755.4938</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-86394.85974156698</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-80302.83464156698</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-80436.20094156697</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-82185.09184156697</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-83218.81904156697</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-86345.46964156696</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-85596.75554156696</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-86848.04144156697</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-88979.54934156696</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H62">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-92937.89544156697</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-88149.66204156697</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-84069.88734156698</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-84665.12604156698</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-70303.99474156699</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-77128.59044156699</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-77128.59044156699</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-89328.63084156699</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-91163.38224156699</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-90670.51524156699</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-91343.91644156698</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-92834.40324156699</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-93155.218641567</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-93155.218641567</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-90161.603841567</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-90251.15234156701</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>-91178.43334156701</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-91103.26244156701</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>-90149.09475847501</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-106322.351158475</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-105157.941558475</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-103795.917258475</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-95642.952027066</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-95834.24872706599</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-95681.82212706599</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-96465.18682706599</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-96481.223427066</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-149210.623727066</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-182061.439027066</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-143593.386627066</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-141028.668527066</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-141167.199627066</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-141114.815827066</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-140188.455127066</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-140211.963527066</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-140235.963527066</v>
       </c>
       <c r="H197">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-140215.963527066</v>
       </c>
       <c r="H198">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-140216.257027066</v>
       </c>
       <c r="H199">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-153333.809327066</v>
       </c>
       <c r="H201">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-144011.719227066</v>
       </c>
       <c r="H202">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-144257.798527066</v>
       </c>
       <c r="H203">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-144607.465627066</v>
       </c>
       <c r="H204">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-144596.703627066</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-145034.373627066</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-145020.373627066</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-136447.433027066</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-137834.770727066</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-137831.770727066</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-140532.817927066</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-141806.204327066</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-290223.7650374149</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-289858.4330374149</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-290552.0977374149</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-290237.5203374149</v>
       </c>
       <c r="H398">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-291129.5848374148</v>
       </c>
       <c r="H399">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-290824.9062487619</v>
       </c>
       <c r="H400">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-281586.7421487619</v>
       </c>
       <c r="H410">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-281331.5993487619</v>
       </c>
       <c r="H411">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-280582.0398487619</v>
       </c>
       <c r="H412">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-280582.0398487619</v>
       </c>
       <c r="H413">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-280555.2820487619</v>
       </c>
       <c r="H433">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-280534.1709487619</v>
       </c>
       <c r="H436">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-284439.7626487619</v>
       </c>
       <c r="H446">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H447">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H448">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H449">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-13 DAD ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-13 DAD ohlcv.xlsx
@@ -1198,7 +1198,7 @@
         <v>-85586.83724156697</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>-86440.65714156698</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>-86433.44974156698</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-86436.44974156698</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>-86394.85974156698</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-86394.85974156698</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-80216.88274156698</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-80302.83464156698</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-83218.81904156697</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-85596.75554156696</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>-86848.04144156697</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-87204.73894156697</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-89143.34574156697</v>
       </c>
       <c r="H62">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-92937.89544156697</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-88149.66204156697</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-84069.88734156698</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-84665.12604156698</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-76518.49044156699</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-77128.59044156699</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-89328.63084156699</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-91163.38224156699</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-90670.51524156699</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-91343.91644156698</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-92889.96684156699</v>
       </c>
       <c r="H114">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-92834.40324156699</v>
       </c>
       <c r="H115">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-90161.603841567</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-90251.15234156701</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-91103.26244156701</v>
       </c>
       <c r="H121">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-103795.917258475</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-95642.952027066</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-95697.858827066</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-95834.24872706599</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-95681.82212706599</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-95745.43212706599</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-96481.223427066</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-149210.623727066</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>-182061.439027066</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-143593.386627066</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-141028.668527066</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>-141167.199627066</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>-141114.815827066</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-140188.455127066</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-140211.963527066</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-140235.963527066</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>-140215.963527066</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-140216.257027066</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-153333.809327066</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-144011.719227066</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-144257.798527066</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-144607.465627066</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-144596.703627066</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-145034.373627066</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-145020.373627066</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-136447.433027066</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-137834.770727066</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-137831.770727066</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-140532.817927066</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-140508.100727066</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-141806.204327066</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-267471.1780374149</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-268906.3189374148</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-290223.7650374149</v>
       </c>
       <c r="H395">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-289858.4330374149</v>
       </c>
       <c r="H396">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-290552.0977374149</v>
       </c>
       <c r="H397">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-290237.5203374149</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-291129.5848374148</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-290824.9062487619</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-284508.1296487619</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-280582.0398487619</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-279125.2433487619</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-279125.2433487619</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-280633.7957487619</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-280651.7957487619</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-280602.2857487619</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-280620.2857487619</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-280566.2857487619</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-280566.2857487619</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-280566.2857487619</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-280558.3337487619</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-280555.2820487619</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-280591.2820487619</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-280534.1709487619</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-281572.9723487619</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-282514.2636487619</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-284415.4554487619</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
